--- a/config/default/forms/app/contact.xlsx
+++ b/config/default/forms/app/contact.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hts vall\New folder\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F6D320-E861-4BC5-88B2-56B40444CF5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -24,622 +39,621 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="202">
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media::image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./source = 'user'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db:clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kemr_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMR Client Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db:person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID of head of household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of head of household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/contact/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/patient_sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'185dec84-df6f-4fc7-a370-15aa8be531ec’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter_type_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'ea68aad6-4655-4dc5-80f2-780e33055a9e'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of first contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. &lt;= today()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encounter date cannot be in the future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one population_type_male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">populationTypeMale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key population type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${sex}=’male’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one population_type_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">populationTypeFemale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${sex}=’female’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_164929_populationType_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${populationTypeMale} !=’’, ${populationTypeMale}, ${populationTypeFemale})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165028_alias_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_160638_altContact_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative contact person:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regex(., ‘^[A-Z]{1}[a-z]{1,14}(?: [A-Za-z]+){0,2}$’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accepts only three names alphabets with the first letter capitalized.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_160642_altContactPhone_99DCT</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>db:clinic</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>kemr_uuid</t>
+  </si>
+  <si>
+    <t>EMR Client Reference</t>
+  </si>
+  <si>
+    <t>patient_sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>ID of head of household</t>
+  </si>
+  <si>
+    <t>Name of head of household</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>CHW name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>../inputs/source</t>
+  </si>
+  <si>
+    <t>../inputs/source_id</t>
+  </si>
+  <si>
+    <t>place_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>place_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>../inputs/contact/contact/name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_sex</t>
+  </si>
+  <si>
+    <t>form_uuid</t>
+  </si>
+  <si>
+    <t>'185dec84-df6f-4fc7-a370-15aa8be531ec’</t>
+  </si>
+  <si>
+    <t>encounter_type_uuid</t>
+  </si>
+  <si>
+    <t>'ea68aad6-4655-4dc5-80f2-780e33055a9e'</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>encounter_date</t>
+  </si>
+  <si>
+    <t>Date of first contact</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>. &lt;= today()</t>
+  </si>
+  <si>
+    <t>Encounter date cannot be in the future</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>General information</t>
+  </si>
+  <si>
+    <t>select_one population_type_male</t>
+  </si>
+  <si>
+    <t>populationTypeMale</t>
+  </si>
+  <si>
+    <t>Key population type:</t>
+  </si>
+  <si>
+    <t>${sex}=’male’</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>select_one population_type_female</t>
+  </si>
+  <si>
+    <t>populationTypeFemale</t>
+  </si>
+  <si>
+    <t>${sex}=’female’</t>
+  </si>
+  <si>
+    <t>_164929_populationType_99DCT</t>
+  </si>
+  <si>
+    <t>if(${populationTypeMale} !=’’, ${populationTypeMale}, ${populationTypeFemale})</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>_165028_alias_99DCT</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>_160638_altContact_99DCT</t>
+  </si>
+  <si>
+    <t>Alternative contact person:</t>
+  </si>
+  <si>
+    <t>regex(., ‘^[A-Z]{1}[a-z]{1,14}(?: [A-Za-z]+){0,2}$’)</t>
+  </si>
+  <si>
+    <t>Accepts only three names alphabets with the first letter capitalized.</t>
+  </si>
+  <si>
+    <t>_160642_altContactPhone_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Alternative contact person phone number: </t>
   </si>
   <si>
-    <t xml:space="preserve">regex(.,'^([+]?[1-9]{3})([0-9]{9})$') or regex(.,’^[0-9]{10}$’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one contacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165004_contactedByPeerEductor_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you been contacted by a peer educator?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165137_programReceivingServiceFrom_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, which program do you recieve services from?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${_165004_contactedByPeerEductor_99DCT}=”_1065_yes_99DCT”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165006_hotspotFrequented_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotspot mostly freqented:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one type_of_hotspot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165005_hotspotType_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of spot mostly frequented?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165298_otherHotspot_999DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify other type of hotspot:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${_165005_hotspotType_99DCT}=”_5622_other_99DCT”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165144_yearStartedSexWork_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What year did you start sex work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter valid year (can not be in the future)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165144_yearStartedMSM_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which year did you start having sex with men?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${_164929_populationType_99DCT}=”_160578_msm_99DCT”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165144_yearStartedDrugs_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which year did you start using using drugs(injecting or smoking)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165030_yearStartedSexWork_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date(${_165144_yearStartedSexWork_99DCT},"%Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165031_yearStartedMSM_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date(${_165144_yearStartedMSM_99DCT},"%Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165032_yearStartedDrugs_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date(${_165144_yearStartedDrugs_99DCT},"%Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165007_averageSexActPerWeek_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On average, how many sex acts do you have per week?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. &gt;= 1 and . &lt;= 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can not be more than 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165007_averageAnal_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On average, how many anal sex acts do you have per week?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165009_averageDrugInject_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On average, how many times do you inject drugs per day?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${_164929_populationType_99DCT}=”_105_pwid_99DCT”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1065_yes_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1066_no_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>regex(.,'^([+]?[1-9]{3})([0-9]{9})$') or regex(.,’^[0-9]{10}$’)</t>
+  </si>
+  <si>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
+  </si>
+  <si>
+    <t>select_one contacted</t>
+  </si>
+  <si>
+    <t>_165004_contactedByPeerEductor_99DCT</t>
+  </si>
+  <si>
+    <t>Have you been contacted by a peer educator?</t>
+  </si>
+  <si>
+    <t>_165137_programReceivingServiceFrom_99DCT</t>
+  </si>
+  <si>
+    <t>If yes, which program do you recieve services from?</t>
+  </si>
+  <si>
+    <t>${_165004_contactedByPeerEductor_99DCT}=”_1065_yes_99DCT”</t>
+  </si>
+  <si>
+    <t>_165006_hotspotFrequented_99DCT</t>
+  </si>
+  <si>
+    <t>Hotspot mostly freqented:</t>
+  </si>
+  <si>
+    <t>select_one type_of_hotspot</t>
+  </si>
+  <si>
+    <t>_165005_hotspotType_99DCT</t>
+  </si>
+  <si>
+    <t>Type of spot mostly frequented?</t>
+  </si>
+  <si>
+    <t>_165298_otherHotspot_999DCT</t>
+  </si>
+  <si>
+    <t>Specify other type of hotspot:</t>
+  </si>
+  <si>
+    <t>${_165005_hotspotType_99DCT}=”_5622_other_99DCT”</t>
+  </si>
+  <si>
+    <t>_165144_yearStartedSexWork_99DCT</t>
+  </si>
+  <si>
+    <t>What year did you start sex work?</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Enter valid year (can not be in the future)</t>
+  </si>
+  <si>
+    <t>_165144_yearStartedMSM_99DCT</t>
+  </si>
+  <si>
+    <t>Which year did you start having sex with men?</t>
+  </si>
+  <si>
+    <t>${_164929_populationType_99DCT}=”_160578_msm_99DCT”</t>
+  </si>
+  <si>
+    <t>_165144_yearStartedDrugs_99DCT</t>
+  </si>
+  <si>
+    <t>Which year did you start using using drugs(injecting or smoking)?</t>
+  </si>
+  <si>
+    <t>_165030_yearStartedSexWork_99DCT</t>
+  </si>
+  <si>
+    <t>NO_LABLE</t>
+  </si>
+  <si>
+    <t>format-date(${_165144_yearStartedSexWork_99DCT},"%Y")</t>
+  </si>
+  <si>
+    <t>_165031_yearStartedMSM_99DCT</t>
+  </si>
+  <si>
+    <t>format-date(${_165144_yearStartedMSM_99DCT},"%Y")</t>
+  </si>
+  <si>
+    <t>_165032_yearStartedDrugs_99DCT</t>
+  </si>
+  <si>
+    <t>format-date(${_165144_yearStartedDrugs_99DCT},"%Y")</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>_165007_averageSexActPerWeek_99DCT</t>
+  </si>
+  <si>
+    <t>On average, how many sex acts do you have per week?</t>
+  </si>
+  <si>
+    <t>. &gt;= 1 and . &lt;= 200</t>
+  </si>
+  <si>
+    <t>Can not be more than 200</t>
+  </si>
+  <si>
+    <t>_165007_averageAnal_99DCT</t>
+  </si>
+  <si>
+    <t>On average, how many anal sex acts do you have per week?</t>
+  </si>
+  <si>
+    <t>_165009_averageDrugInject_99DCT</t>
+  </si>
+  <si>
+    <t>On average, how many times do you inject drugs per day?</t>
+  </si>
+  <si>
+    <t>${_164929_populationType_99DCT}=”_105_pwid_99DCT”</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>contacted</t>
+  </si>
+  <si>
+    <t>_1065_yes_99DCT</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>_1066_no_99DCT</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve"> type_of_hotspot</t>
   </si>
   <si>
-    <t xml:space="preserve">_165011_street_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165012_InjectingDen_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injecting Den</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165013_UninhabitableBuilding_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uninhabitable building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165014_Park_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1536_Homes_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165015_Beach_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165016_Casino_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165017_barWithLodgig_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar with lodging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165018_barWithoutLodging_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar without lodging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165019_sexDen_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex den</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165020_striClub_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strip Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165021_highways_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165022_brothel_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brothel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165023_guestHouse_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest House / Hotals/ Lodgings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165024_massageParlour_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massage Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165025_changaaDen_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changaa Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165026_barbershopSalon_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbershop /Salon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165297_virtualSpace_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_5622_other_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (Specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_type_male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_160578_msm_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165084_msw_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_105_pwid_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165085_pwud_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165100_transgender_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transgender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_type_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_165083_fsw_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
+    <t>_165011_street_99DCT</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>_165012_InjectingDen_99DCT</t>
+  </si>
+  <si>
+    <t>Injecting Den</t>
+  </si>
+  <si>
+    <t>_165013_UninhabitableBuilding_99DCT</t>
+  </si>
+  <si>
+    <t>Uninhabitable building</t>
+  </si>
+  <si>
+    <t>_165014_Park_99DCT</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>_1536_Homes_99DCT</t>
+  </si>
+  <si>
+    <t>Homes</t>
+  </si>
+  <si>
+    <t>_165015_Beach_99DCT</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>_165016_Casino_99DCT</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>_165017_barWithLodgig_99DCT</t>
+  </si>
+  <si>
+    <t>Bar with lodging</t>
+  </si>
+  <si>
+    <t>_165018_barWithoutLodging_99DCT</t>
+  </si>
+  <si>
+    <t>Bar without lodging</t>
+  </si>
+  <si>
+    <t>_165019_sexDen_99DCT</t>
+  </si>
+  <si>
+    <t>Sex den</t>
+  </si>
+  <si>
+    <t>_165020_striClub_99DCT</t>
+  </si>
+  <si>
+    <t>Strip Club</t>
+  </si>
+  <si>
+    <t>_165021_highways_99DCT</t>
+  </si>
+  <si>
+    <t>Highway</t>
+  </si>
+  <si>
+    <t>_165022_brothel_99DCT</t>
+  </si>
+  <si>
+    <t>Brothel</t>
+  </si>
+  <si>
+    <t>_165023_guestHouse_99DCT</t>
+  </si>
+  <si>
+    <t>Guest House / Hotals/ Lodgings</t>
+  </si>
+  <si>
+    <t>_165024_massageParlour_99DCT</t>
+  </si>
+  <si>
+    <t>Massage Parlor</t>
+  </si>
+  <si>
+    <t>_165025_changaaDen_99DCT</t>
+  </si>
+  <si>
+    <t>Changaa Parlor</t>
+  </si>
+  <si>
+    <t>_165026_barbershopSalon_99DCT</t>
+  </si>
+  <si>
+    <t>Barbershop /Salon</t>
+  </si>
+  <si>
+    <t>_165297_virtualSpace_99DCT</t>
+  </si>
+  <si>
+    <t>Virtual Space</t>
+  </si>
+  <si>
+    <t>_5622_other_99DCT</t>
+  </si>
+  <si>
+    <t>Other (Specify)</t>
+  </si>
+  <si>
+    <t>population_type_male</t>
+  </si>
+  <si>
+    <t>_160578_msm_99DCT</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>_165084_msw_99DCT</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>_105_pwid_99DCT</t>
+  </si>
+  <si>
+    <t>PWID</t>
+  </si>
+  <si>
+    <t>_165085_pwud_99DCT</t>
+  </si>
+  <si>
+    <t>PWUD</t>
+  </si>
+  <si>
+    <t>_165100_transgender_99DCT</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>population_type_female</t>
+  </si>
+  <si>
+    <t>_165083_fsw_99DCT</t>
+  </si>
+  <si>
+    <t>FSW</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Contact Form</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -648,22 +662,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -709,7 +708,6 @@
       <sz val="11"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -754,7 +752,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -762,254 +760,1942 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
-    <dxf>
-      <font>
-        <strike val="1"/>
+  <dxfs count="228">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1017,1111 +2703,218 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="1"/>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -2132,254 +2925,20 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2388,437 +2947,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2877,45 +3016,352 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="8:8"/>
+    <sheetView windowProtection="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.015306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.2448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.3979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0102040816326"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="79.1938775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="31.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="15.3010204081633"/>
+    <col min="1" max="1" width="30.1328125"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52"/>
+    <col min="4" max="4" width="15.265625"/>
+    <col min="5" max="5" width="56.265625"/>
+    <col min="6" max="6" width="18.53125"/>
+    <col min="7" max="7" width="41.3984375"/>
+    <col min="8" max="8" width="35"/>
+    <col min="9" max="9" width="79.19921875"/>
+    <col min="10" max="10" width="15.265625"/>
+    <col min="11" max="11" width="26.796875"/>
+    <col min="12" max="12" width="15.265625"/>
+    <col min="13" max="25" width="31.9296875"/>
+    <col min="26" max="1025" width="15.265625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:38" ht="13.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +3414,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:38" ht="13.5">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3005,7 +3451,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:38" ht="13.5">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3040,7 +3486,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:38" ht="13.5">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -3073,7 +3519,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:38" ht="13.5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3552,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:38" ht="13.5">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -3141,7 +3587,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:38" ht="13.5">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -3174,7 +3620,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:38" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -3220,7 +3666,7 @@
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:38" ht="13.5">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -3253,7 +3699,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:38" ht="13.5">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3286,7 +3732,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:38" ht="13.5">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -3321,7 +3767,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:38" ht="13.5">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -3354,7 +3800,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:38" ht="13.5">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3383,7 +3829,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:38" ht="13.5">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +3862,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:38" ht="13.5">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3449,7 +3895,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:38" ht="13.5">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -3482,7 +3928,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="13.5">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -3515,7 +3961,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:25" ht="13.5">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -3548,7 +3994,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:25" ht="13.5">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -3577,7 +4023,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:25" ht="13.5">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -3606,7 +4052,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:25" ht="13.5">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -3635,7 +4081,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="13.5">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -3664,7 +4110,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:25" ht="13.5">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3693,7 +4139,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:25" ht="13.5">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -3728,7 +4174,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:25" ht="13.5">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -3763,7 +4209,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:25" ht="13.5">
       <c r="A26" s="8" t="s">
         <v>44</v>
       </c>
@@ -3798,7 +4244,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:25" ht="13.5">
       <c r="A27" s="8" t="s">
         <v>44</v>
       </c>
@@ -3833,7 +4279,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:25" ht="13.5">
       <c r="A28" s="8" t="s">
         <v>44</v>
       </c>
@@ -3868,7 +4314,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:25" ht="13.5">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
@@ -3903,7 +4349,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:25" ht="13.5">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
@@ -3938,7 +4384,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="13.5">
       <c r="A31" s="8" t="s">
         <v>44</v>
       </c>
@@ -3973,7 +4419,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:25" ht="13.5">
       <c r="A32" s="8" t="s">
         <v>60</v>
       </c>
@@ -4012,7 +4458,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" ht="13.5">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4039,7 +4485,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:25" ht="14.25">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
@@ -4074,7 +4520,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" ht="13.5">
       <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
@@ -4113,7 +4559,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:25" ht="13.5">
       <c r="A36" s="8" t="s">
         <v>73</v>
       </c>
@@ -4152,7 +4598,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:25" ht="13.5">
       <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
@@ -4189,7 +4635,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:25" ht="13.5">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4216,7 +4662,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5">
       <c r="A39" s="8" t="s">
         <v>78</v>
       </c>
@@ -4249,7 +4695,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:25" ht="13.9">
       <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
@@ -4288,7 +4734,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" ht="67.5">
       <c r="A41" s="8" t="s">
         <v>78</v>
       </c>
@@ -4327,7 +4773,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:25" ht="27">
       <c r="A42" s="8" t="s">
         <v>90</v>
       </c>
@@ -4362,7 +4808,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" ht="27">
       <c r="A43" s="8" t="s">
         <v>78</v>
       </c>
@@ -4397,7 +4843,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:25" ht="13.5">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -4430,7 +4876,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" ht="13.5">
       <c r="A45" s="8" t="s">
         <v>98</v>
       </c>
@@ -4467,7 +4913,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:25" ht="13.5">
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
@@ -4502,7 +4948,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:25" ht="27">
       <c r="A47" s="8" t="s">
         <v>60</v>
       </c>
@@ -4541,7 +4987,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:25" ht="27">
       <c r="A48" s="8" t="s">
         <v>60</v>
       </c>
@@ -4582,7 +5028,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:25" ht="27">
       <c r="A49" s="8" t="s">
         <v>60</v>
       </c>
@@ -4621,7 +5067,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:25" ht="13.5">
       <c r="A50" s="8" t="s">
         <v>44</v>
       </c>
@@ -4656,7 +5102,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:25" ht="13.5">
       <c r="A51" s="8" t="s">
         <v>44</v>
       </c>
@@ -4691,7 +5137,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:25" ht="13.5">
       <c r="A52" s="8" t="s">
         <v>44</v>
       </c>
@@ -4726,7 +5172,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:25" ht="27">
       <c r="A53" s="8" t="s">
         <v>120</v>
       </c>
@@ -4763,7 +5209,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:25" ht="13.5">
       <c r="A54" s="8" t="s">
         <v>120</v>
       </c>
@@ -4800,7 +5246,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:25" ht="13.5">
       <c r="A55" s="8" t="s">
         <v>120</v>
       </c>
@@ -4839,7 +5285,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:25" ht="13.5">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4866,7 +5312,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:25" ht="13.5">
       <c r="A57" s="8" t="s">
         <v>38</v>
       </c>
@@ -4897,1125 +5343,1116 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="227" priority="2" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="label" dxfId="1"/>
+    <cfRule type="notContainsText" dxfId="226" priority="3" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="225" priority="4" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="224" priority="5" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="223" priority="6" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="222" priority="7" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="constraint_message" dxfId="6"/>
+    <cfRule type="notContainsText" dxfId="221" priority="8" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="220" priority="9" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="219" priority="10" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="hint" dxfId="9"/>
+    <cfRule type="notContainsText" dxfId="218" priority="11" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" dxfId="217" priority="12" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" dxfId="216" priority="13" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" dxfId="215" priority="14">
       <formula>COUNTIF($B$2:$B$1018,B46)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="13"/>
+    <cfRule type="containsText" dxfId="214" priority="15" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" dxfId="213" priority="16" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:Y45">
-    <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
+    <cfRule type="containsText" dxfId="212" priority="17" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:Y45">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" dxfId="211" priority="18" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A45">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" dxfId="210" priority="19" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="containsText" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
+    <cfRule type="containsText" dxfId="209" priority="20" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="cellIs" dxfId="208" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="cellIs" dxfId="207" priority="22" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A45">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="cellIs" dxfId="206" priority="23" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="cellIs" dxfId="205" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" dxfId="204" priority="25">
       <formula>AND($I49 = "", $A49 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" dxfId="203" priority="26">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" dxfId="202" priority="27">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="cellIs" dxfId="201" priority="28" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="27"/>
+    <cfRule type="containsText" dxfId="200" priority="29" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" dxfId="199" priority="30">
       <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" dxfId="198" priority="31">
       <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="cellIs" dxfId="197" priority="32" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" dxfId="196" priority="33">
       <formula>AND($I53 = "", $A53 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" dxfId="195" priority="34">
       <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" dxfId="194" priority="35">
       <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="cellIs" dxfId="193" priority="36" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" dxfId="192" priority="37">
       <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" dxfId="191" priority="38">
       <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" dxfId="190" priority="39">
       <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" dxfId="189" priority="40">
       <formula>AND($I54 = "", $A54 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" dxfId="188" priority="41">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" dxfId="187" priority="42">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" dxfId="186" priority="43" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" dxfId="185" priority="44">
       <formula>AND($I55 = "", $A55 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" dxfId="184" priority="45">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" dxfId="183" priority="46">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="cellIs" dxfId="182" priority="47" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="cellIs" dxfId="181" priority="48" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="containsText" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="47"/>
+    <cfRule type="containsText" dxfId="180" priority="49" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" dxfId="179" priority="50">
       <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" dxfId="178" priority="51">
       <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" dxfId="177" priority="52" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="expression" dxfId="176" priority="53">
       <formula>AND($I46 = "", $A46 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" dxfId="175" priority="54">
       <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="expression" dxfId="174" priority="55">
       <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="cellIs" dxfId="173" priority="56" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" dxfId="172" priority="57">
       <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" dxfId="171" priority="58">
       <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" dxfId="170" priority="59">
       <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="58"/>
+    <cfRule type="containsText" dxfId="169" priority="60" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" dxfId="168" priority="61">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" dxfId="167" priority="62">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="cellIs" dxfId="166" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" dxfId="165" priority="64">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+    <cfRule type="expression" dxfId="164" priority="65">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" dxfId="163" priority="66" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" dxfId="162" priority="67">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="expression" dxfId="161" priority="68">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="cellIs" dxfId="160" priority="69" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" dxfId="159" priority="70">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+    <cfRule type="expression" dxfId="158" priority="71">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="70"/>
+    <cfRule type="containsText" dxfId="157" priority="72" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
+    <cfRule type="expression" dxfId="156" priority="73">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+    <cfRule type="expression" dxfId="155" priority="74">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+    <cfRule type="cellIs" dxfId="154" priority="75" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+    <cfRule type="expression" dxfId="153" priority="76">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
+    <cfRule type="expression" dxfId="152" priority="77">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:Y33">
-    <cfRule type="containsText" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="76"/>
+    <cfRule type="containsText" dxfId="151" priority="78" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:Y33">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="cellIs" dxfId="150" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
+    <cfRule type="cellIs" dxfId="149" priority="80" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
+    <cfRule type="expression" dxfId="148" priority="81">
       <formula>AND($I39 = "", $A39 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
+    <cfRule type="expression" dxfId="147" priority="82">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+    <cfRule type="expression" dxfId="146" priority="83">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
+    <cfRule type="cellIs" dxfId="145" priority="84" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="83"/>
+    <cfRule type="containsText" dxfId="144" priority="85" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
+    <cfRule type="expression" dxfId="143" priority="86">
       <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="cellIs" dxfId="142" priority="87" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
+    <cfRule type="expression" dxfId="141" priority="88">
       <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+    <cfRule type="expression" dxfId="140" priority="89">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G43 = "", $H43 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
+    <cfRule type="expression" dxfId="139" priority="90">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G43 = "", $H43 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
+    <cfRule type="expression" dxfId="138" priority="91">
       <formula>COUNTIF($B$2:$B$1019,B39)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+    <cfRule type="expression" dxfId="137" priority="92">
       <formula>AND($I40 = "", $A40 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
+    <cfRule type="expression" dxfId="136" priority="93">
       <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
+    <cfRule type="expression" dxfId="135" priority="94">
       <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
+    <cfRule type="cellIs" dxfId="134" priority="95" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="94"/>
+    <cfRule type="containsText" dxfId="133" priority="96" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
+    <cfRule type="expression" dxfId="132" priority="97">
       <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
+    <cfRule type="cellIs" dxfId="131" priority="98" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
+    <cfRule type="expression" dxfId="130" priority="99">
       <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
+    <cfRule type="expression" dxfId="129" priority="100">
       <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G44 = "", $H44 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
+    <cfRule type="expression" dxfId="128" priority="101">
       <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G44 = "", $H44 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
+    <cfRule type="expression" dxfId="127" priority="102">
       <formula>COUNTIF($B$2:$B$1019,B40)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
+    <cfRule type="expression" dxfId="126" priority="103">
       <formula>AND($I41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
+    <cfRule type="expression" dxfId="125" priority="104">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
+    <cfRule type="expression" dxfId="124" priority="105">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
+    <cfRule type="cellIs" dxfId="123" priority="106" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="105"/>
+    <cfRule type="containsText" dxfId="122" priority="107" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
+    <cfRule type="expression" dxfId="121" priority="108">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
+    <cfRule type="cellIs" dxfId="120" priority="109" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
+    <cfRule type="expression" dxfId="119" priority="110">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
+    <cfRule type="expression" dxfId="118" priority="111">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G45 = "", $H45 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
+    <cfRule type="expression" dxfId="117" priority="112">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G45 = "", $H45 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
+    <cfRule type="expression" dxfId="116" priority="113">
       <formula>COUNTIF($B$2:$B$1019,B41)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="112"/>
+    <cfRule type="containsText" dxfId="115" priority="114" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
+    <cfRule type="expression" dxfId="114" priority="115">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
+    <cfRule type="expression" dxfId="113" priority="116">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
+    <cfRule type="cellIs" dxfId="112" priority="117" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
+    <cfRule type="expression" dxfId="111" priority="118">
       <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
+    <cfRule type="expression" dxfId="110" priority="119">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
+    <cfRule type="expression" dxfId="109" priority="120">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H55">
-    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="119"/>
+    <cfRule type="containsText" dxfId="108" priority="121" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H55">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
+    <cfRule type="expression" dxfId="107" priority="122">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H55">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
+    <cfRule type="expression" dxfId="106" priority="123">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H55">
-    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
+    <cfRule type="cellIs" dxfId="105" priority="124" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
+    <cfRule type="expression" dxfId="104" priority="125">
       <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H55">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
+    <cfRule type="expression" dxfId="103" priority="126">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H55">
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
+    <cfRule type="expression" dxfId="102" priority="127">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:Y32">
-    <cfRule type="containsText" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="126"/>
+    <cfRule type="containsText" dxfId="101" priority="128" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:Y32">
-    <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+    <cfRule type="cellIs" dxfId="100" priority="129" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
+    <cfRule type="cellIs" dxfId="99" priority="130" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
+    <cfRule type="expression" dxfId="98" priority="131">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$969, "begin group") = COUNTIF($A$1:$A$969, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
+    <cfRule type="expression" dxfId="97" priority="132">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$960, "begin group") = COUNTIF($A$1:$A$969, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+    <cfRule type="expression" dxfId="96" priority="133">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
+    <cfRule type="expression" dxfId="95" priority="134">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="133">
+    <cfRule type="expression" dxfId="94" priority="135">
       <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
+    <cfRule type="expression" dxfId="93" priority="136">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+    <cfRule type="expression" dxfId="92" priority="137">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="containsText" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="136"/>
+    <cfRule type="containsText" dxfId="91" priority="138" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
+    <cfRule type="cellIs" dxfId="90" priority="139" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
+    <cfRule type="expression" dxfId="89" priority="140">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" dxfId="88" priority="141">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
+    <cfRule type="expression" dxfId="87" priority="142">
       <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
+    <cfRule type="expression" dxfId="86" priority="143">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
+    <cfRule type="expression" dxfId="85" priority="144">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="containsText" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="143"/>
+    <cfRule type="containsText" dxfId="84" priority="145" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
+    <cfRule type="cellIs" dxfId="83" priority="146" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="145"/>
+    <cfRule type="containsText" dxfId="82" priority="147" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
+    <cfRule type="expression" dxfId="81" priority="148">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
+    <cfRule type="expression" dxfId="80" priority="149">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
+    <cfRule type="cellIs" dxfId="79" priority="150" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
+    <cfRule type="expression" dxfId="78" priority="151">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
+    <cfRule type="expression" dxfId="77" priority="152">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
+    <cfRule type="expression" dxfId="76" priority="153">
       <formula>COUNTIF($B$2:$B$968,B50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I51">
-    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
+    <cfRule type="expression" dxfId="75" priority="154">
       <formula>AND($I50 = "", $A50 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C51">
-    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
+    <cfRule type="expression" dxfId="74" priority="155">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
+    <cfRule type="expression" dxfId="73" priority="156">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
+    <cfRule type="expression" dxfId="72" priority="157">
       <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A51">
-    <cfRule type="cellIs" priority="158" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
+    <cfRule type="cellIs" dxfId="71" priority="158" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
+    <cfRule type="expression" dxfId="70" priority="159">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
+    <cfRule type="expression" dxfId="69" priority="160">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" priority="161" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
+    <cfRule type="cellIs" dxfId="68" priority="161" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="162" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
+    <cfRule type="cellIs" dxfId="67" priority="162" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="161"/>
+    <cfRule type="containsText" dxfId="66" priority="163" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
+    <cfRule type="expression" dxfId="65" priority="164">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="163">
+    <cfRule type="expression" dxfId="64" priority="165">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" priority="166" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
+    <cfRule type="cellIs" dxfId="63" priority="166" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
+    <cfRule type="expression" dxfId="62" priority="167">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
+    <cfRule type="expression" dxfId="61" priority="168">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="167">
+    <cfRule type="expression" dxfId="60" priority="169">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168">
+    <cfRule type="expression" dxfId="59" priority="170">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="169">
+    <cfRule type="expression" dxfId="58" priority="171">
       <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170">
+    <cfRule type="expression" dxfId="57" priority="172">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
+    <cfRule type="expression" dxfId="56" priority="173">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="containsText" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="172"/>
+    <cfRule type="containsText" dxfId="55" priority="174" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="cellIs" priority="175" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="173">
+    <cfRule type="cellIs" dxfId="54" priority="175" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="174">
+    <cfRule type="expression" dxfId="53" priority="176">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="175">
+    <cfRule type="expression" dxfId="52" priority="177">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176">
+    <cfRule type="expression" dxfId="51" priority="178">
       <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="177">
+    <cfRule type="expression" dxfId="50" priority="179">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="178">
+    <cfRule type="expression" dxfId="49" priority="180">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="containsText" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="179"/>
+    <cfRule type="containsText" dxfId="48" priority="181" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="cellIs" priority="182" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="180">
+    <cfRule type="cellIs" dxfId="47" priority="182" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="containsText" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="181"/>
+    <cfRule type="containsText" dxfId="46" priority="183" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" priority="184" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
+    <cfRule type="cellIs" dxfId="45" priority="184" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
+    <cfRule type="expression" dxfId="44" priority="185">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
+    <cfRule type="expression" dxfId="43" priority="186">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
+    <cfRule type="expression" dxfId="42" priority="187">
       <formula>AND($I52 = "", $A52 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
+    <cfRule type="expression" dxfId="41" priority="188">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
+    <cfRule type="expression" dxfId="40" priority="189">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="188"/>
+    <cfRule type="containsText" dxfId="39" priority="190" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" priority="191" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
+    <cfRule type="cellIs" dxfId="38" priority="191" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="190"/>
+    <cfRule type="containsText" dxfId="37" priority="192" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" priority="193" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
+    <cfRule type="cellIs" dxfId="36" priority="193" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:Y9">
-    <cfRule type="containsText" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="192"/>
+    <cfRule type="containsText" dxfId="35" priority="194" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:Y9">
-    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
+    <cfRule type="expression" dxfId="34" priority="195">
       <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:Y9">
-    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194">
+    <cfRule type="expression" dxfId="33" priority="196">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:Y9">
-    <cfRule type="cellIs" priority="197" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
+    <cfRule type="cellIs" dxfId="32" priority="197" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+    <cfRule type="expression" dxfId="31" priority="198">
       <formula>AND($I9 = "", $A9 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
+    <cfRule type="expression" dxfId="30" priority="199">
       <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $C9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
+    <cfRule type="expression" dxfId="29" priority="200">
       <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $B9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" priority="201" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
+    <cfRule type="cellIs" dxfId="28" priority="201" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+    <cfRule type="expression" dxfId="27" priority="202">
       <formula>AND(NOT($G9 = ""), $H9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:Y9">
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
+    <cfRule type="expression" dxfId="26" priority="203">
       <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:Y9">
-    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
+    <cfRule type="expression" dxfId="25" priority="204">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
-      <formula>COUNTIF($B$2:$B$968,#ref!)&gt;1</formula>
+    <cfRule type="expression" dxfId="24" priority="205">
+      <formula>COUNTIF($B$2:$B$968,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="containsText" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="192"/>
+    <cfRule type="containsText" dxfId="23" priority="206" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
+    <cfRule type="expression" dxfId="22" priority="207">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194">
+    <cfRule type="expression" dxfId="21" priority="208">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="cellIs" priority="209" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
+    <cfRule type="cellIs" dxfId="20" priority="209" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+    <cfRule type="expression" dxfId="19" priority="210">
       <formula>AND($I29 = "", $A29 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
+    <cfRule type="expression" dxfId="18" priority="211">
       <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
+    <cfRule type="expression" dxfId="17" priority="212">
       <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" priority="213" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
+    <cfRule type="cellIs" dxfId="16" priority="213" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+    <cfRule type="expression" dxfId="15" priority="214">
       <formula>AND(NOT($G29 = ""), $H29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
+    <cfRule type="expression" dxfId="14" priority="215">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
+    <cfRule type="expression" dxfId="13" priority="216">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
-      <formula>COUNTIF($B$2:$B$968,#ref!)&gt;1</formula>
+    <cfRule type="expression" dxfId="12" priority="217">
+      <formula>COUNTIF($B$2:$B$968,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+    <cfRule type="expression" dxfId="11" priority="218">
       <formula>AND($I37 = "", $A37 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
+    <cfRule type="expression" dxfId="10" priority="219">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
+    <cfRule type="expression" dxfId="9" priority="220">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
+    <cfRule type="cellIs" dxfId="8" priority="221" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+    <cfRule type="expression" dxfId="7" priority="222">
       <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
-      <formula>COUNTIF($B$2:$B$968,#ref!)&gt;1</formula>
+    <cfRule type="expression" dxfId="6" priority="223">
+      <formula>COUNTIF($B$2:$B$968,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+    <cfRule type="expression" dxfId="5" priority="224">
       <formula>AND($I37 = "", $A37 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
+    <cfRule type="expression" dxfId="4" priority="225">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
+    <cfRule type="expression" dxfId="3" priority="226">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" priority="227" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
+    <cfRule type="cellIs" dxfId="2" priority="227" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+    <cfRule type="expression" dxfId="1" priority="228">
       <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
-      <formula>COUNTIF($B$2:$B$968,#ref!)&gt;1</formula>
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>COUNTIF($B$2:$B$968,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D7 D9:D57" type="list">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D7 D9:D57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1048540"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C35" activeCellId="1" sqref="8:8 C35"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.3010204081633"/>
+    <col min="1" max="1" width="27.33203125"/>
+    <col min="2" max="2" width="33.265625"/>
+    <col min="3" max="3" width="47.86328125"/>
+    <col min="4" max="1025" width="15.265625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="13.9">
       <c r="A1" s="16" t="s">
         <v>130</v>
       </c>
@@ -6029,7 +6466,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="18" t="s">
         <v>54</v>
       </c>
@@ -6040,7 +6477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
@@ -6051,30 +6488,30 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -6084,8 +6521,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -6095,8 +6532,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>140</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -6106,8 +6543,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -6117,8 +6554,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -6128,8 +6565,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>140</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -6139,8 +6576,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>140</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -6150,8 +6587,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>140</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -6161,8 +6598,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -6172,8 +6609,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>140</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -6183,8 +6620,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -6194,8 +6631,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>140</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -6205,8 +6642,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -6216,8 +6653,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>140</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -6227,8 +6664,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -6238,8 +6675,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -6249,8 +6686,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>140</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -6260,8 +6697,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -6271,8 +6708,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -6282,12 +6719,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>179</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -6297,8 +6734,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>179</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -6308,8 +6745,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>179</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -6319,8 +6756,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>179</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -6330,8 +6767,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>179</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -6341,8 +6778,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -6352,8 +6789,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>190</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -6363,8 +6800,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>190</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -6374,8 +6811,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>190</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -6385,43 +6822,30 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1048540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="8:8 A2"/>
+    <sheetView windowProtection="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="A8:XFD8 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.3010204081633"/>
+    <col min="1" max="2" width="15.265625"/>
+    <col min="3" max="3" width="24.53125"/>
+    <col min="4" max="1025" width="15.265625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="13.9">
       <c r="A1" s="16" t="s">
         <v>193</v>
       </c>
@@ -6441,16 +6865,16 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="18" t="s">
         <v>199</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44104.7266894983</v>
+      <c r="C2" s="20">
+        <f ca="1">NOW()</f>
+        <v>44250.827029629632</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>200</v>
@@ -6460,14 +6884,9 @@
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>